--- a/数据整理/stocks/A股/上证主板/603279-景津环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603279-景津环保.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,1963 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1939</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8954</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6851</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5456</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5128</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603279-景津环保.xlsx
+++ b/数据整理/stocks/A股/上证主板/603279-景津环保.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,395 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3900</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>210003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰行业优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2954</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1391</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002934</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1244</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002681</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002935</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0757</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001692</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方国策动力股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0583</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0507</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002682</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金鹰元和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
+      <c r="D3" t="n">
+        <v>2.24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2804,64 +2474,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.74</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.24</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>